--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>945572.4831795256</v>
+        <v>943136.8462558188</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673449</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11316641.57080507</v>
+        <v>11316641.57080508</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.6214982250928</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>116.9650399396271</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>166.372299305391</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559967</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>69.49139589553519</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>128.1592673228016</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>15.38185492767444</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778481</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>102.3247335807562</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329707</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>377.0807898309538</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
-        <v>201.764089379378</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.0543222645813</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035394</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468621</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.07742161338507</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>124.100452100949</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146358</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>319.4395745411799</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793495</v>
       </c>
       <c r="F16" t="n">
-        <v>2.119387955707412</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>260.7402930080326</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634818</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>6.228861054223747</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>156.3923706291104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>192.8019480235363</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576166</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881304</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570047005</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>75.55208621972984</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520932</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.513340657431</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>116.9020714724192</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819385</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>73.98898794535468</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.825382616189799</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7194509233177</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7811435429991</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1754.744438482647</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1385.781921542235</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1027.516222935485</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>641.7279703372405</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X2" t="n">
-        <v>2531.48361052258</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y2" t="n">
-        <v>2141.344278546769</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4413,16 +4413,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>677.4387267498528</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>677.4387267498528</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4522,16 +4522,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>677.4387267498528</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>677.4387267498528</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>825.047808106885</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>818.1023073576815</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2685.613599606915</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2332.8449443368</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>1959.379186075721</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218342</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1708.010285469454</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1708.010285469454</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1708.010285469454</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.325797263567</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>935.919076328589</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943747</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>950.1045973369969</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>950.1045973369969</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>539.1186925473894</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>124.0462423923859</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,7 +4899,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.1346335501037</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1734.105774097782</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1512.339158667308</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1223.236291792951</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>968.5518035870643</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>679.1346335501037</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>679.1346335501037</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>679.1346335501037</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1986.992666738384</v>
+        <v>1535.258832689345</v>
       </c>
       <c r="C11" t="n">
-        <v>1618.030149797972</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1259.764451191222</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>873.9761985929777</v>
+        <v>512.3331043803402</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950446</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="G11" t="n">
-        <v>78.5110662246916</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="H11" t="n">
-        <v>78.5110662246916</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246916</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386815</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420292</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301221</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878104</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765417</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687092</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856273</v>
+        <v>3535.048359856278</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388223</v>
+        <v>3835.937563882237</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123458</v>
+        <v>3925.553311234586</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.55331123458</v>
+        <v>3826.588132455656</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.75120075036</v>
+        <v>3622.786021971436</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382968</v>
+        <v>3369.295305604043</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039397</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>3137.197597039397</v>
+        <v>2685.463762990358</v>
       </c>
       <c r="X11" t="n">
-        <v>2763.731838778318</v>
+        <v>2311.998004729278</v>
       </c>
       <c r="Y11" t="n">
-        <v>2373.592506802506</v>
+        <v>1921.858672753467</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503039</v>
+        <v>88.36274985503042</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246916</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792121</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376487</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843948</v>
+        <v>900.4499396649586</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282829</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279349</v>
+        <v>1955.072021259914</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145097</v>
+        <v>1991.670362601624</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.97904598525</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>373.3141073049951</v>
+        <v>203.8650582458523</v>
       </c>
       <c r="C13" t="n">
-        <v>373.3141073049951</v>
+        <v>203.8650582458522</v>
       </c>
       <c r="D13" t="n">
-        <v>373.3141073049951</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="E13" t="n">
-        <v>225.401013722602</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="F13" t="n">
-        <v>78.5110662246916</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="G13" t="n">
-        <v>78.5110662246916</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246916</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246916</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600395</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457693</v>
+        <v>368.4550473457698</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888901</v>
+        <v>717.5002252888909</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779219</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542991</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715845</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082517</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.9090435511</v>
+        <v>2155.909043551102</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014269</v>
+        <v>2076.10273901427</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370151</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920197</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360486</v>
+        <v>1378.397311360487</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154599</v>
+        <v>1123.7128231546</v>
       </c>
       <c r="W13" t="n">
-        <v>834.2956531176385</v>
+        <v>834.2956531176394</v>
       </c>
       <c r="X13" t="n">
-        <v>606.3061022196212</v>
+        <v>606.3061022196221</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.513523076091</v>
+        <v>385.5135230760919</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5312,16 +5312,16 @@
         <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126175</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.62987785606</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>423.3203657894393</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1015.338720041567</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.434683440903</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2184.311158441098</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635724</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>392.9821521356655</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="D16" t="n">
-        <v>242.8655127233296</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="E16" t="n">
-        <v>94.95241914093663</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608056</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
         <v>92.81162322608056</v>
@@ -5434,13 +5434,13 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5449,7 +5449,7 @@
         <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020529</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
         <v>2310.662640856733</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.34892993536</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373423</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938121</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835333</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5683,7 +5683,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279803</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1237.37303605497</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487566</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831764</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625877</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>696.7084350851671</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>546.5917956728313</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>398.6787020904383</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>251.788754592528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6385,13 +6385,13 @@
         <v>174.0526814782954</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770326</v>
+        <v>513.8536007400746</v>
       </c>
       <c r="C31" t="n">
-        <v>634.3345878491257</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>484.2179484367899</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072723</v>
+        <v>695.5020655703144</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.463817499104</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711972</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>549.614540988804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2328.88018310307</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2109.278718126011</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1820.203491470209</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1565.519003264322</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.101833227361</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1048.112282329344</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7184,7 +7184,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,61 +7306,61 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311992</v>
+        <v>580.8993044876677</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032923</v>
+        <v>411.9631215597608</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909565</v>
+        <v>261.846482147425</v>
       </c>
       <c r="E40" t="n">
-        <v>482.6390612909565</v>
+        <v>261.846482147425</v>
       </c>
       <c r="F40" t="n">
-        <v>335.7491137930463</v>
+        <v>261.846482147425</v>
       </c>
       <c r="G40" t="n">
-        <v>168.5530145079261</v>
+        <v>94.65038286230492</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230492</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
         <v>1755.431557602304</v>
@@ -7372,10 +7372,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614389</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,19 +7421,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>632.7243904253733</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2315.933335172869</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2096.33187019581</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1807.256643540008</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.572155334121</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1263.15498529716</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>814.372855255613</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>549.6145409888038</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>549.6145409888038</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888038</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888038</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908935</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1724.146794103439</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1469.462305897552</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1180.045135860591</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>952.0555849625737</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>731.2630058190435</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803689</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>29.79525591075759</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238064</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114124</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.7545585685522</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>24.51502091726337</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703405</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>50.29152613728917</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.16217041863422</v>
       </c>
       <c r="F16" t="n">
-        <v>143.3016600672238</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>25.78270532855839</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.2941372823633</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>9.131767663158826</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823013</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.294712846221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856272</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>32.90770736550087</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409392737</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>70.88187642683933</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.31863952450634</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>64.12421452922536</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>66.30572490086934</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>80.44045370237573</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.30683507832695</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228784</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>35.40333084624504</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897276.1100569032</v>
+        <v>897276.1100569039</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>981384.7428932664</v>
+        <v>981384.7428932663</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26314,37 @@
         <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795032</v>
+        <v>405380.8397795036</v>
       </c>
       <c r="F2" t="n">
         <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="H2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="H2" t="n">
-        <v>443930.6298295037</v>
-      </c>
       <c r="I2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295037</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="N2" t="n">
         <v>443930.6298295035</v>
@@ -26353,7 +26353,7 @@
         <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
     </row>
     <row r="3">
@@ -26366,28 +26366,28 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185133</v>
+        <v>143114.1392185144</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051408</v>
+        <v>166521.3471051395</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115259</v>
+        <v>37377.32855115295</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848995</v>
+        <v>43782.40655848948</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224638</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
+        <v>92793.84288319403</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319401</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
         <v>13507.6871545367</v>
@@ -26430,22 +26430,22 @@
         <v>13600.27549061739</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
@@ -26454,7 +26454,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214689</v>
+        <v>86093.72216214699</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1077899.555746824</v>
       </c>
       <c r="C6" t="n">
-        <v>250845.1899807685</v>
+        <v>250845.1899807686</v>
       </c>
       <c r="D6" t="n">
-        <v>250845.1899807688</v>
+        <v>250845.1899807686</v>
       </c>
       <c r="E6" t="n">
-        <v>162665.2912443063</v>
+        <v>162455.3270004607</v>
       </c>
       <c r="F6" t="n">
-        <v>161210.1232913205</v>
+        <v>161164.2182957562</v>
       </c>
       <c r="G6" t="n">
-        <v>318034.0556581749</v>
+        <v>317999.3177327391</v>
       </c>
       <c r="H6" t="n">
-        <v>329201.2918937536</v>
+        <v>329166.553968318</v>
       </c>
       <c r="I6" t="n">
-        <v>329201.2918937536</v>
+        <v>329166.5539683176</v>
       </c>
       <c r="J6" t="n">
-        <v>111670.0894964761</v>
+        <v>111635.3515710405</v>
       </c>
       <c r="K6" t="n">
-        <v>329201.2918937538</v>
+        <v>329166.553968318</v>
       </c>
       <c r="L6" t="n">
-        <v>329201.2918937536</v>
+        <v>329166.5539683179</v>
       </c>
       <c r="M6" t="n">
-        <v>291823.963342601</v>
+        <v>291789.225417165</v>
       </c>
       <c r="N6" t="n">
-        <v>285418.8853352637</v>
+        <v>285384.1474098284</v>
       </c>
       <c r="O6" t="n">
-        <v>326177.993916529</v>
+        <v>326143.2559910932</v>
       </c>
       <c r="P6" t="n">
-        <v>329201.2918937537</v>
+        <v>329166.5539683176</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494554</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808645</v>
+        <v>981.3883278086465</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,19 +26814,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,25 +26960,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012556</v>
+        <v>122.3935669012565</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218322</v>
+        <v>145.8707812218311</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063524</v>
+        <v>149.9868724063537</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173619</v>
+        <v>178.7569625173604</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364143</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063522</v>
+        <v>149.9868724063537</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173621</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063524</v>
+        <v>149.9868724063537</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173619</v>
+        <v>178.7569625173604</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.1123434383878</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>289.9110058020843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>59.33735608364617</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797456773</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>258.2608625745997</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>61.60975800864028</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>279.225909459646</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228679</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>87.44429175068566</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.053384223590637e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29272,10 +29272,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.557513963650944e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-1.838888887011943e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29448,10 +29448,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.893003170356678e-12</v>
       </c>
       <c r="I28" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29736,7 +29736,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.590727549682924e-12</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.642779091942156e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>9.927318226724917e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -29973,7 +29973,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.513437447175571e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485639</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508981</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380253</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307171</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726044</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216957</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857409</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.509834189837</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294391</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615123</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895576</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356975</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951041</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.3317601847534</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188511</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969417</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191516</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059646</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783036</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202545</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735571</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845316</v>
+        <v>660.6327957845323</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147127</v>
+        <v>678.1177801147132</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431797</v>
+        <v>179.5642660017277</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020546</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071839</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697576</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780655</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190407</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.18588081023608</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737171</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691778</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836908</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619736</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509169</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263702</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973088</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050053</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761891</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916776</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570591</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929603</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826885</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765136</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>427.3161054158215</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>506.1607420902315</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954396</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040309</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276239</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517085</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584681</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593246</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077524</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062427</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151081</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156541</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116369</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458955</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>2.984824693682888</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625132</v>
+        <v>518.4987618625139</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313794</v>
+        <v>546.77606803138</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987353</v>
+        <v>36.9680215572833</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062158</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211624</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701807</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360908</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112331</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882108</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765374</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.549444619045</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410826</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998321</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>295.9743933324882</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>372.1863346759013</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121063</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
